--- a/network_automation_app/device_information/设备巡检/设备巡检表.xlsx
+++ b/network_automation_app/device_information/设备巡检/设备巡检表.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HW8860" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CE12800" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CE68|58" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NE20" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HW5700" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CS4500" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CS" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="HW8860" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CE12800" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CE68|58" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NE20" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="HW5700" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="CS4500" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="CS" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">698 days, 22 hours, 51 minutes </t>
+          <t xml:space="preserve">775 days, 23 hours, 24 minutes </t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>32%</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">698 days, 22 hours, 15 minutes </t>
+          <t xml:space="preserve">775 days, 22 hours, 49 minutes </t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>32%</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1711 days, 5 hours, 6 minutes </t>
+          <t xml:space="preserve">1788 days, 5 hours, 40 minutes </t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">376 days, 0 hour, 42 minutes </t>
+          <t xml:space="preserve">453 days, 1 hour, 16 minutes </t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>32%</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-E05-CE8860</t>
+          <t>XY-2F-D09-CE8860</t>
         </is>
       </c>
       <c r="B33" s="2" t="n"/>
@@ -965,7 +965,7 @@
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1325 days, 22 hours, 11 minutes </t>
+          <t xml:space="preserve">1804 days, 4 hours, 21 minutes </t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>2102350KGU10K6000005</t>
+          <t>2102350KGU10J5000137</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>CE88-D16Q: 1
+          <t>CE88-D16Q: 2
 CE88-D24S2CQ: 1</t>
         </is>
       </c>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>30%</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-E06-CE8860</t>
+          <t>XY-2F-D10-CE8860</t>
         </is>
       </c>
       <c r="B41" s="2" t="n"/>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1325 days, 22 hours, 3 minutes </t>
+          <t xml:space="preserve">378 days, 1 hour, 2 minutes </t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>2102350KGU10K6000006</t>
+          <t>2102350KGU10J5000141</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>CE88-D16Q: 1
+          <t>CE88-D16Q: 2
 CE88-D24S2CQ: 1</t>
         </is>
       </c>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>28%</t>
         </is>
       </c>
     </row>
@@ -1155,20 +1155,242 @@
       <c r="C46" s="4" t="n"/>
       <c r="D46" s="5" t="n"/>
     </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>XY-2F-E05-CE8860</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n"/>
+      <c r="C49" s="2" t="n"/>
+      <c r="D49" s="2" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>CE8860-4C-EI</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>运行时间</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1402 days, 22 hours, 45 minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>序列号</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>2102350KGU10K6000005</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>板卡信息</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>CE88-D16Q: 1
+CE88-D24S2CQ: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>CPU_usage</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>Memory_usage</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>电源状态</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>风扇状态</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>本月无硬件告警</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="n"/>
+      <c r="C54" s="4" t="n"/>
+      <c r="D54" s="5" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>XY-2F-E06-CE8860</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n"/>
+      <c r="C57" s="2" t="n"/>
+      <c r="D57" s="2" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>CE8860-4C-EI</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>运行时间</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1402 days, 22 hours, 37 minutes </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>序列号</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>2102350KGU10K6000006</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>板卡信息</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>CE88-D16Q: 1
+CE88-D24S2CQ: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>CPU_usage</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>Memory_usage</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>电源状态</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>风扇状态</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>本月无硬件告警</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="n"/>
+      <c r="C62" s="4" t="n"/>
+      <c r="D62" s="5" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A46:D46"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A46:D46"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1222,7 +1444,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1024 days, 14 hours, 10 minutes </t>
+          <t xml:space="preserve">1101 days, 14 hours, 39 minutes </t>
         </is>
       </c>
     </row>
@@ -1257,7 +1479,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1331,7 +1553,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">917 days, 0 hour, 11 minutes </t>
+          <t xml:space="preserve">994 days, 0 hour, 44 minutes </t>
         </is>
       </c>
     </row>
@@ -1366,7 +1588,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -1440,7 +1662,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1946 days, 18 hours, 13 minutes </t>
+          <t xml:space="preserve">2023 days, 18 hours, 45 minutes </t>
         </is>
       </c>
     </row>
@@ -1485,7 +1707,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>18%</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1771,7 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1944 days, 19 hours, 57 minutes </t>
+          <t xml:space="preserve">2021 days, 20 hours, 29 minutes </t>
         </is>
       </c>
     </row>
@@ -1633,13 +1855,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A25:D25"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1651,7 +1873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D294"/>
+  <dimension ref="A1:D254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1693,7 +1915,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">299 days, 0 hour, 27 minutes </t>
+          <t xml:space="preserve">1596 days, 1 hour, 44 minutes </t>
         </is>
       </c>
     </row>
@@ -1705,7 +1927,8 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6THA000014</t>
+          <t>2102350EWL6TH9000003
+2102350EWL6TJ1000005</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1727,7 +1950,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1737,7 +1960,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -1801,7 +2024,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">299 days, 0 hour, 27 minutes </t>
+          <t xml:space="preserve">376 days, 1 hour, 3 minutes </t>
         </is>
       </c>
     </row>
@@ -1835,7 +2058,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -1845,7 +2068,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -1909,7 +2132,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1867 days, 1 hour, 10 minutes </t>
+          <t xml:space="preserve">1944 days, 1 hour, 45 minutes </t>
         </is>
       </c>
     </row>
@@ -1944,7 +2167,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -2018,7 +2241,7 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2147 days, 0 hour, 41 minutes </t>
+          <t xml:space="preserve">2224 days, 1 hour, 16 minutes </t>
         </is>
       </c>
     </row>
@@ -2048,7 +2271,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -2122,7 +2345,7 @@
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2072 days, 1 hour, 52 minutes </t>
+          <t xml:space="preserve">2149 days, 2 hours, 28 minutes </t>
         </is>
       </c>
     </row>
@@ -2157,7 +2380,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -2167,7 +2390,7 @@
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>47%</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2454,7 @@
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2042 days, 4 hours, 13 minutes </t>
+          <t xml:space="preserve">2119 days, 4 hours, 49 minutes </t>
         </is>
       </c>
     </row>
@@ -2266,7 +2489,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -2276,7 +2499,7 @@
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>47%</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2563,7 @@
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1705 days, 8 hours, 47 minutes </t>
+          <t xml:space="preserve">1782 days, 9 hours, 24 minutes </t>
         </is>
       </c>
     </row>
@@ -2375,7 +2598,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2385,7 +2608,7 @@
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2672,7 @@
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1789 days, 22 hours, 31 minutes </t>
+          <t xml:space="preserve">1866 days, 23 hours, 8 minutes </t>
         </is>
       </c>
     </row>
@@ -2484,7 +2707,7 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -2494,7 +2717,7 @@
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>51%</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2781,7 @@
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1023 days, 16 hours, 52 minutes </t>
+          <t xml:space="preserve">1100 days, 17 hours, 27 minutes </t>
         </is>
       </c>
     </row>
@@ -2593,7 +2816,7 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>18%</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -2603,7 +2826,7 @@
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2890,7 @@
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">997 days, 22 hours, 51 minutes </t>
+          <t xml:space="preserve">1074 days, 23 hours, 26 minutes </t>
         </is>
       </c>
     </row>
@@ -2702,7 +2925,7 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -2776,7 +2999,7 @@
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1023 days, 15 hours, 51 minutes </t>
+          <t xml:space="preserve">1100 days, 16 hours, 28 minutes </t>
         </is>
       </c>
     </row>
@@ -2811,7 +3034,7 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -2860,7 +3083,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>FD4-D06&amp;D08-CE6850-1</t>
+          <t>FD4-D09&amp;D11-CE6850-1</t>
         </is>
       </c>
       <c r="B89" s="2" t="n"/>
@@ -2875,7 +3098,7 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>CE6850-48T6Q-HI</t>
+          <t>CE6855-48T6Q-HI</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -2885,7 +3108,7 @@
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>997 days, 22 hours, 1 minute</t>
+          <t xml:space="preserve">1099 days, 18 hours, 2 minutes </t>
         </is>
       </c>
     </row>
@@ -2897,8 +3120,8 @@
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TJ4000019
-2102350EWL6TJ4000020</t>
+          <t>2102350QAJDMK7000089
+2102350QAJDMK7000136</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -2920,7 +3143,7 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -2930,7 +3153,7 @@
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -2969,7 +3192,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>FD4-D09&amp;D11-CE6850-1</t>
+          <t>FD4-D14&amp;D16-CE6850-1</t>
         </is>
       </c>
       <c r="B97" s="2" t="n"/>
@@ -2984,7 +3207,7 @@
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>CE6855-48T6Q-HI</t>
+          <t>CE6850-48T6Q-HI</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -2994,7 +3217,7 @@
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1022 days, 17 hours, 27 minutes </t>
+          <t xml:space="preserve">1073 days, 23 hours, 11 minutes </t>
         </is>
       </c>
     </row>
@@ -3006,8 +3229,8 @@
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>2102350QAJDMK7000089
-2102350QAJDMK7000136</t>
+          <t>2102350EWK6THC000014
+2102350EWK6THC000023</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -3029,7 +3252,7 @@
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -3039,7 +3262,7 @@
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -3078,7 +3301,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>FD4-D10&amp;D12-CE6850-1</t>
+          <t>FD4-D17&amp;D19-CE6850-1</t>
         </is>
       </c>
       <c r="B105" s="2" t="n"/>
@@ -3103,7 +3326,7 @@
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">996 days, 23 hours, 15 minutes </t>
+          <t xml:space="preserve">1099 days, 2 hours, 33 minutes </t>
         </is>
       </c>
     </row>
@@ -3115,8 +3338,8 @@
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>2102350EWK6THC000009
-2102350EWK6THC000025</t>
+          <t>2102350EWL6TJ1000025
+2102350EWL6TJ1000015</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
@@ -3138,7 +3361,7 @@
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -3148,7 +3371,7 @@
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3410,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>FD4-D14&amp;D16-CE6850-1</t>
+          <t>FD4-D22-CE6850-1</t>
         </is>
       </c>
       <c r="B113" s="2" t="n"/>
@@ -3212,7 +3435,7 @@
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">996 days, 22 hours, 36 minutes </t>
+          <t xml:space="preserve">1068 days, 23 hours, 12 minutes </t>
         </is>
       </c>
     </row>
@@ -3224,8 +3447,7 @@
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>2102350EWK6THC000014
-2102350EWK6THC000023</t>
+          <t>2102350EWK6THC000013</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -3247,7 +3469,7 @@
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -3296,7 +3518,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>FD4-D17&amp;D19-CE6850-1</t>
+          <t>XY-2F-C01&amp;C02-CE6850</t>
         </is>
       </c>
       <c r="B121" s="2" t="n"/>
@@ -3321,7 +3543,7 @@
       </c>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1022 days, 1 hour, 57 minutes </t>
+          <t xml:space="preserve">1810 days, 1 hour, 56 minutes </t>
         </is>
       </c>
     </row>
@@ -3333,8 +3555,8 @@
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TJ1000025
-2102350EWL6TJ1000015</t>
+          <t>2102350EWL6TGA000016
+2102350EWL10GB000018</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -3356,7 +3578,7 @@
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -3366,7 +3588,7 @@
       </c>
       <c r="D124" s="3" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3627,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>FD4-D18&amp;D20-CE6850-1</t>
+          <t>XY-2F-C03&amp;C04-CE6850</t>
         </is>
       </c>
       <c r="B129" s="2" t="n"/>
@@ -3430,7 +3652,7 @@
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">992 days, 22 hours, 37 minutes </t>
+          <t xml:space="preserve">1809 days, 5 hours, 50 minutes </t>
         </is>
       </c>
     </row>
@@ -3442,8 +3664,8 @@
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>2102350EWK6THC000015
-2102350EWK6THC000018</t>
+          <t>2102350EWL10GC000031
+2102350EWL6TGA000049</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -3465,7 +3687,7 @@
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -3514,7 +3736,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>FD4-D22-CE6850-1</t>
+          <t>XY-2F-C05&amp;C06-CE6851</t>
         </is>
       </c>
       <c r="B137" s="2" t="n"/>
@@ -3539,7 +3761,7 @@
       </c>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">991 days, 22 hours, 36 minutes </t>
+          <t xml:space="preserve">1740 days, 5 hours, 6 minutes </t>
         </is>
       </c>
     </row>
@@ -3551,7 +3773,8 @@
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>2102350EWK6THC000013</t>
+          <t>2102350EWL6TJ4000031
+2102350EWL6TJ4000028</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
@@ -3583,7 +3806,7 @@
       </c>
       <c r="D140" s="3" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>65%</t>
         </is>
       </c>
     </row>
@@ -3622,7 +3845,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-C01&amp;C02-CE6850</t>
+          <t>XY-2F-C07&amp;C08-CE6851</t>
         </is>
       </c>
       <c r="B145" s="2" t="n"/>
@@ -3647,7 +3870,7 @@
       </c>
       <c r="D146" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1733 days, 1 hour, 20 minutes </t>
+          <t xml:space="preserve">1740 days, 5 hours, 15 minutes </t>
         </is>
       </c>
     </row>
@@ -3659,8 +3882,8 @@
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TGA000016
-2102350EWL10GB000018</t>
+          <t>2102350EWL6TJ4000032
+2102350EWL6TJ4000026</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -3682,7 +3905,7 @@
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -3692,7 +3915,7 @@
       </c>
       <c r="D148" s="3" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3954,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-C03&amp;C04-CE6850</t>
+          <t>XY-2F-D03&amp;D04-CE6850</t>
         </is>
       </c>
       <c r="B153" s="2" t="n"/>
@@ -3756,7 +3979,7 @@
       </c>
       <c r="D154" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1732 days, 5 hours, 14 minutes </t>
+          <t xml:space="preserve">1608 days, 3 hours, 42 minutes </t>
         </is>
       </c>
     </row>
@@ -3768,8 +3991,8 @@
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL10GC000031
-2102350EWL6TGA000049</t>
+          <t>2102350EWL6TJ7000005
+2102350EWL6TJ7000011</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
@@ -3791,7 +4014,7 @@
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -3801,7 +4024,7 @@
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>65%</t>
         </is>
       </c>
     </row>
@@ -3840,7 +4063,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-C05&amp;C06-CE6851</t>
+          <t>XY-2F-D06-CE6850</t>
         </is>
       </c>
       <c r="B161" s="2" t="n"/>
@@ -3865,7 +4088,7 @@
       </c>
       <c r="D162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1663 days, 4 hours, 31 minutes </t>
+          <t xml:space="preserve">1859 days, 5 hours, 48 minutes </t>
         </is>
       </c>
     </row>
@@ -3877,8 +4100,8 @@
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TJ4000031
-2102350EWL6TJ4000028</t>
+          <t>2102350EWL6TGA000035
+2102350EWL10GC000071</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
@@ -3900,7 +4123,7 @@
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -3910,7 +4133,7 @@
       </c>
       <c r="D164" s="3" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -3949,7 +4172,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-C07&amp;C08-CE6851</t>
+          <t>XY-2F-D08-CE6850</t>
         </is>
       </c>
       <c r="B169" s="2" t="n"/>
@@ -3974,7 +4197,7 @@
       </c>
       <c r="D170" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1663 days, 4 hours, 39 minutes </t>
+          <t xml:space="preserve">1859 days, 5 hours, 40 minutes </t>
         </is>
       </c>
     </row>
@@ -3986,8 +4209,8 @@
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TJ4000032
-2102350EWL6TJ4000026</t>
+          <t>2102350EWL10GC000081
+2102350EWL10GB000035</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -4009,7 +4232,7 @@
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -4019,7 +4242,7 @@
       </c>
       <c r="D172" s="3" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4281,7 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-D03&amp;D04-CE6850</t>
+          <t>XY-2F-E01&amp;E02-CE6850</t>
         </is>
       </c>
       <c r="B177" s="2" t="n"/>
@@ -4083,7 +4306,7 @@
       </c>
       <c r="D178" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1531 days, 3 hours, 6 minutes </t>
+          <t xml:space="preserve">2022 days, 6 hours, 34 minutes </t>
         </is>
       </c>
     </row>
@@ -4095,8 +4318,8 @@
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TJ7000005
-2102350EWL6TJ7000011</t>
+          <t>2102350EWL6TH9000022
+2102350EWL6TH9000019</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
@@ -4118,7 +4341,7 @@
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -4128,7 +4351,7 @@
       </c>
       <c r="D180" s="3" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>66%</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4390,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-D06-CE6850</t>
+          <t>XY-2F-E04-CE685</t>
         </is>
       </c>
       <c r="B185" s="2" t="n"/>
@@ -4192,7 +4415,7 @@
       </c>
       <c r="D186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1782 days, 5 hours, 12 minutes </t>
+          <t xml:space="preserve">2027 days, 6 hours, 27 minutes </t>
         </is>
       </c>
     </row>
@@ -4204,8 +4427,8 @@
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TGA000035
-2102350EWL10GC000071</t>
+          <t>2102350EWL6TH9000018
+2102350EWL6TH9000012</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
@@ -4237,7 +4460,7 @@
       </c>
       <c r="D188" s="3" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>68%</t>
         </is>
       </c>
     </row>
@@ -4276,7 +4499,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-D08-CE6850</t>
+          <t>XY-2F-E05&amp;E06-CE6810</t>
         </is>
       </c>
       <c r="B193" s="2" t="n"/>
@@ -4291,7 +4514,7 @@
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>CE6850-48T6Q-HI</t>
+          <t>CE6810-32T16S4Q-LI</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -4301,7 +4524,7 @@
       </c>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1782 days, 5 hours, 5 minutes </t>
+          <t xml:space="preserve">2024 days, 0 hour, 15 minutes </t>
         </is>
       </c>
     </row>
@@ -4313,8 +4536,8 @@
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL10GC000081
-2102350EWL10GB000035</t>
+          <t>2102350EWE10HA000033
+2102350EWE10HA000032</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
@@ -4336,7 +4559,7 @@
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -4346,7 +4569,7 @@
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>46%</t>
         </is>
       </c>
     </row>
@@ -4385,7 +4608,7 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-D09-CE8860</t>
+          <t>XY-2F-E07&amp;E08-CE6850</t>
         </is>
       </c>
       <c r="B201" s="2" t="n"/>
@@ -4400,7 +4623,7 @@
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>CE8860-4C-EI</t>
+          <t>CE6850-48T6Q-HI</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
@@ -4410,7 +4633,7 @@
       </c>
       <c r="D202" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1727 days, 3 hours, 47 minutes </t>
+          <t xml:space="preserve">2027 days, 6 hours, 16 minutes </t>
         </is>
       </c>
     </row>
@@ -4422,7 +4645,8 @@
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>2102350KGU10J5000137</t>
+          <t>2102350EWL6TH9000011
+2102350EWL6TH9000021</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
@@ -4444,7 +4668,7 @@
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
@@ -4454,7 +4678,7 @@
       </c>
       <c r="D204" s="3" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4700,8 @@
       </c>
       <c r="D205" s="3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Abnormal
+Normal</t>
         </is>
       </c>
     </row>
@@ -4493,7 +4718,7 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-D10-CE8860</t>
+          <t>XY-2F-E09&amp;E10-CE6850</t>
         </is>
       </c>
       <c r="B209" s="2" t="n"/>
@@ -4508,7 +4733,7 @@
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>CE8860-4C-EI</t>
+          <t>CE6850-48T6Q-HI</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -4518,7 +4743,7 @@
       </c>
       <c r="D210" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">301 days, 0 hour, 28 minutes </t>
+          <t xml:space="preserve">2027 days, 6 hours, 24 minutes </t>
         </is>
       </c>
     </row>
@@ -4530,7 +4755,8 @@
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>2102350KGU10J5000141</t>
+          <t>2102350EWL6TH9000030
+2102350EWL6TH9000029</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
@@ -4552,7 +4778,7 @@
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
@@ -4562,7 +4788,7 @@
       </c>
       <c r="D212" s="3" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4827,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-E01&amp;E02-CE6850</t>
+          <t>XY-2F-F01&amp;F02-CE6850</t>
         </is>
       </c>
       <c r="B217" s="2" t="n"/>
@@ -4626,7 +4852,7 @@
       </c>
       <c r="D218" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1945 days, 5 hours, 58 minutes </t>
+          <t xml:space="preserve">2010 days, 2 hours, 29 minutes </t>
         </is>
       </c>
     </row>
@@ -4638,8 +4864,8 @@
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TH9000022
-2102350EWL6TH9000019</t>
+          <t>2102350EWL6TH9000006
+2102350EWL6TH8000002</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
@@ -4671,7 +4897,7 @@
       </c>
       <c r="D220" s="3" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -4710,7 +4936,7 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-E04-CE685</t>
+          <t>XY-2F-F03&amp;F04-CE6850</t>
         </is>
       </c>
       <c r="B225" s="2" t="n"/>
@@ -4735,7 +4961,7 @@
       </c>
       <c r="D226" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1950 days, 5 hours, 52 minutes </t>
+          <t xml:space="preserve">2010 days, 2 hours, 33 minutes </t>
         </is>
       </c>
     </row>
@@ -4747,8 +4973,8 @@
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TH9000018
-2102350EWL6TH9000012</t>
+          <t>2102350EWL6THA000002
+2102350EWL6THA000037</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
@@ -4770,7 +4996,7 @@
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
@@ -4780,7 +5006,7 @@
       </c>
       <c r="D228" s="3" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -4819,7 +5045,7 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-E05&amp;E06-CE6810</t>
+          <t>XY-2F-F05&amp;F06-CE6850</t>
         </is>
       </c>
       <c r="B233" s="2" t="n"/>
@@ -4834,7 +5060,7 @@
       </c>
       <c r="B234" s="3" t="inlineStr">
         <is>
-          <t>CE6810-32T16S4Q-LI</t>
+          <t>CE6850-48T6Q-HI</t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
@@ -4844,7 +5070,7 @@
       </c>
       <c r="D234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1946 days, 23 hours, 45 minutes </t>
+          <t xml:space="preserve">2010 days, 2 hours, 39 minutes </t>
         </is>
       </c>
     </row>
@@ -4856,8 +5082,8 @@
       </c>
       <c r="B235" s="3" t="inlineStr">
         <is>
-          <t>2102350EWE10HA000033
-2102350EWE10HA000032</t>
+          <t>2102350EWL6THA000026
+2102350EWL6THA000020</t>
         </is>
       </c>
       <c r="C235" s="3" t="inlineStr">
@@ -4879,7 +5105,7 @@
       </c>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr">
@@ -4889,7 +5115,7 @@
       </c>
       <c r="D236" s="3" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -4928,7 +5154,7 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-E07&amp;E08-CE6850</t>
+          <t>XY-2F-F07&amp;F08-CE6850</t>
         </is>
       </c>
       <c r="B241" s="2" t="n"/>
@@ -4953,7 +5179,7 @@
       </c>
       <c r="D242" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1950 days, 5 hours, 41 minutes </t>
+          <t xml:space="preserve">2010 days, 2 hours, 30 minutes </t>
         </is>
       </c>
     </row>
@@ -4965,8 +5191,8 @@
       </c>
       <c r="B243" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TH9000011
-2102350EWL6TH9000021</t>
+          <t>2102350EWL6THA000007
+2102350EWL6THA000025</t>
         </is>
       </c>
       <c r="C243" s="3" t="inlineStr">
@@ -4988,7 +5214,7 @@
       </c>
       <c r="B244" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="C244" s="3" t="inlineStr">
@@ -4998,7 +5224,7 @@
       </c>
       <c r="D244" s="3" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -5020,8 +5246,7 @@
       </c>
       <c r="D245" s="3" t="inlineStr">
         <is>
-          <t>Normal
-Abnormal</t>
+          <t>Normal</t>
         </is>
       </c>
     </row>
@@ -5038,7 +5263,7 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-E09&amp;E10-CE6850</t>
+          <t>XY-2F-D09-CE6850</t>
         </is>
       </c>
       <c r="B249" s="2" t="n"/>
@@ -5063,7 +5288,7 @@
       </c>
       <c r="D250" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1950 days, 5 hours, 48 minutes </t>
+          <t xml:space="preserve">390 days, 3 hours, 57 minutes </t>
         </is>
       </c>
     </row>
@@ -5075,8 +5300,7 @@
       </c>
       <c r="B251" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TH9000030
-2102350EWL6TH9000029</t>
+          <t>2102350EWL10GC000083</t>
         </is>
       </c>
       <c r="C251" s="3" t="inlineStr">
@@ -5098,7 +5322,7 @@
       </c>
       <c r="B252" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>18%</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr">
@@ -5108,7 +5332,7 @@
       </c>
       <c r="D252" s="3" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -5144,626 +5368,72 @@
       <c r="C254" s="4" t="n"/>
       <c r="D254" s="5" t="n"/>
     </row>
-    <row r="257">
-      <c r="A257" s="1" t="inlineStr">
-        <is>
-          <t>XY-2F-F01&amp;F02-CE6850</t>
-        </is>
-      </c>
-      <c r="B257" s="2" t="n"/>
-      <c r="C257" s="2" t="n"/>
-      <c r="D257" s="2" t="n"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="3" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="B258" s="3" t="inlineStr">
-        <is>
-          <t>CE6850-48T6Q-HI</t>
-        </is>
-      </c>
-      <c r="C258" s="3" t="inlineStr">
-        <is>
-          <t>运行时间</t>
-        </is>
-      </c>
-      <c r="D258" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1933 days, 1 hour, 54 minutes </t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="3" t="inlineStr">
-        <is>
-          <t>序列号</t>
-        </is>
-      </c>
-      <c r="B259" s="3" t="inlineStr">
-        <is>
-          <t>2102350EWL6TH9000006
-2102350EWL6TH8000002</t>
-        </is>
-      </c>
-      <c r="C259" s="3" t="inlineStr">
-        <is>
-          <t>板卡信息</t>
-        </is>
-      </c>
-      <c r="D259" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="3" t="inlineStr">
-        <is>
-          <t>CPU_usage</t>
-        </is>
-      </c>
-      <c r="B260" s="3" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="C260" s="3" t="inlineStr">
-        <is>
-          <t>Memory_usage</t>
-        </is>
-      </c>
-      <c r="D260" s="3" t="inlineStr">
-        <is>
-          <t>54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="3" t="inlineStr">
-        <is>
-          <t>电源状态</t>
-        </is>
-      </c>
-      <c r="B261" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C261" s="3" t="inlineStr">
-        <is>
-          <t>风扇状态</t>
-        </is>
-      </c>
-      <c r="D261" s="3" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="3" t="inlineStr">
-        <is>
-          <t>本月无硬件告警</t>
-        </is>
-      </c>
-      <c r="B262" s="4" t="n"/>
-      <c r="C262" s="4" t="n"/>
-      <c r="D262" s="5" t="n"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="inlineStr">
-        <is>
-          <t>XY-2F-F03&amp;F04-CE6850</t>
-        </is>
-      </c>
-      <c r="B265" s="2" t="n"/>
-      <c r="C265" s="2" t="n"/>
-      <c r="D265" s="2" t="n"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="3" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="B266" s="3" t="inlineStr">
-        <is>
-          <t>CE6850-48T6Q-HI</t>
-        </is>
-      </c>
-      <c r="C266" s="3" t="inlineStr">
-        <is>
-          <t>运行时间</t>
-        </is>
-      </c>
-      <c r="D266" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1933 days, 1 hour, 58 minutes </t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="3" t="inlineStr">
-        <is>
-          <t>序列号</t>
-        </is>
-      </c>
-      <c r="B267" s="3" t="inlineStr">
-        <is>
-          <t>2102350EWL6THA000002
-2102350EWL6THA000037</t>
-        </is>
-      </c>
-      <c r="C267" s="3" t="inlineStr">
-        <is>
-          <t>板卡信息</t>
-        </is>
-      </c>
-      <c r="D267" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="3" t="inlineStr">
-        <is>
-          <t>CPU_usage</t>
-        </is>
-      </c>
-      <c r="B268" s="3" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="C268" s="3" t="inlineStr">
-        <is>
-          <t>Memory_usage</t>
-        </is>
-      </c>
-      <c r="D268" s="3" t="inlineStr">
-        <is>
-          <t>53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="3" t="inlineStr">
-        <is>
-          <t>电源状态</t>
-        </is>
-      </c>
-      <c r="B269" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C269" s="3" t="inlineStr">
-        <is>
-          <t>风扇状态</t>
-        </is>
-      </c>
-      <c r="D269" s="3" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="3" t="inlineStr">
-        <is>
-          <t>本月无硬件告警</t>
-        </is>
-      </c>
-      <c r="B270" s="4" t="n"/>
-      <c r="C270" s="4" t="n"/>
-      <c r="D270" s="5" t="n"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="inlineStr">
-        <is>
-          <t>XY-2F-F05&amp;F06-CE6850</t>
-        </is>
-      </c>
-      <c r="B273" s="2" t="n"/>
-      <c r="C273" s="2" t="n"/>
-      <c r="D273" s="2" t="n"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="3" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="B274" s="3" t="inlineStr">
-        <is>
-          <t>CE6850-48T6Q-HI</t>
-        </is>
-      </c>
-      <c r="C274" s="3" t="inlineStr">
-        <is>
-          <t>运行时间</t>
-        </is>
-      </c>
-      <c r="D274" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1933 days, 2 hours, 3 minutes </t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="3" t="inlineStr">
-        <is>
-          <t>序列号</t>
-        </is>
-      </c>
-      <c r="B275" s="3" t="inlineStr">
-        <is>
-          <t>2102350EWL6THA000026
-2102350EWL6THA000020</t>
-        </is>
-      </c>
-      <c r="C275" s="3" t="inlineStr">
-        <is>
-          <t>板卡信息</t>
-        </is>
-      </c>
-      <c r="D275" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="3" t="inlineStr">
-        <is>
-          <t>CPU_usage</t>
-        </is>
-      </c>
-      <c r="B276" s="3" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="C276" s="3" t="inlineStr">
-        <is>
-          <t>Memory_usage</t>
-        </is>
-      </c>
-      <c r="D276" s="3" t="inlineStr">
-        <is>
-          <t>53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="3" t="inlineStr">
-        <is>
-          <t>电源状态</t>
-        </is>
-      </c>
-      <c r="B277" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C277" s="3" t="inlineStr">
-        <is>
-          <t>风扇状态</t>
-        </is>
-      </c>
-      <c r="D277" s="3" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="3" t="inlineStr">
-        <is>
-          <t>本月无硬件告警</t>
-        </is>
-      </c>
-      <c r="B278" s="4" t="n"/>
-      <c r="C278" s="4" t="n"/>
-      <c r="D278" s="5" t="n"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="inlineStr">
-        <is>
-          <t>XY-2F-F07&amp;F08-CE6850</t>
-        </is>
-      </c>
-      <c r="B281" s="2" t="n"/>
-      <c r="C281" s="2" t="n"/>
-      <c r="D281" s="2" t="n"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="3" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="B282" s="3" t="inlineStr">
-        <is>
-          <t>CE6850-48T6Q-HI</t>
-        </is>
-      </c>
-      <c r="C282" s="3" t="inlineStr">
-        <is>
-          <t>运行时间</t>
-        </is>
-      </c>
-      <c r="D282" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1933 days, 1 hour, 55 minutes </t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="3" t="inlineStr">
-        <is>
-          <t>序列号</t>
-        </is>
-      </c>
-      <c r="B283" s="3" t="inlineStr">
-        <is>
-          <t>2102350EWL6THA000007
-2102350EWL6THA000025</t>
-        </is>
-      </c>
-      <c r="C283" s="3" t="inlineStr">
-        <is>
-          <t>板卡信息</t>
-        </is>
-      </c>
-      <c r="D283" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="3" t="inlineStr">
-        <is>
-          <t>CPU_usage</t>
-        </is>
-      </c>
-      <c r="B284" s="3" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="C284" s="3" t="inlineStr">
-        <is>
-          <t>Memory_usage</t>
-        </is>
-      </c>
-      <c r="D284" s="3" t="inlineStr">
-        <is>
-          <t>53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="3" t="inlineStr">
-        <is>
-          <t>电源状态</t>
-        </is>
-      </c>
-      <c r="B285" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C285" s="3" t="inlineStr">
-        <is>
-          <t>风扇状态</t>
-        </is>
-      </c>
-      <c r="D285" s="3" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="3" t="inlineStr">
-        <is>
-          <t>本月无硬件告警</t>
-        </is>
-      </c>
-      <c r="B286" s="4" t="n"/>
-      <c r="C286" s="4" t="n"/>
-      <c r="D286" s="5" t="n"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="inlineStr">
-        <is>
-          <t>XY-2F-D09-CE6850</t>
-        </is>
-      </c>
-      <c r="B289" s="2" t="n"/>
-      <c r="C289" s="2" t="n"/>
-      <c r="D289" s="2" t="n"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="3" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="B290" s="3" t="inlineStr">
-        <is>
-          <t>CE6850-48T6Q-HI</t>
-        </is>
-      </c>
-      <c r="C290" s="3" t="inlineStr">
-        <is>
-          <t>运行时间</t>
-        </is>
-      </c>
-      <c r="D290" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">313 days, 3 hours, 21 minutes </t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="3" t="inlineStr">
-        <is>
-          <t>序列号</t>
-        </is>
-      </c>
-      <c r="B291" s="3" t="inlineStr">
-        <is>
-          <t>2102350EWL10GC000083</t>
-        </is>
-      </c>
-      <c r="C291" s="3" t="inlineStr">
-        <is>
-          <t>板卡信息</t>
-        </is>
-      </c>
-      <c r="D291" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="3" t="inlineStr">
-        <is>
-          <t>CPU_usage</t>
-        </is>
-      </c>
-      <c r="B292" s="3" t="inlineStr">
-        <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="C292" s="3" t="inlineStr">
-        <is>
-          <t>Memory_usage</t>
-        </is>
-      </c>
-      <c r="D292" s="3" t="inlineStr">
-        <is>
-          <t>61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="3" t="inlineStr">
-        <is>
-          <t>电源状态</t>
-        </is>
-      </c>
-      <c r="B293" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C293" s="3" t="inlineStr">
-        <is>
-          <t>风扇状态</t>
-        </is>
-      </c>
-      <c r="D293" s="3" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="3" t="inlineStr">
-        <is>
-          <t>本月无硬件告警</t>
-        </is>
-      </c>
-      <c r="B294" s="4" t="n"/>
-      <c r="C294" s="4" t="n"/>
-      <c r="D294" s="5" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="64">
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A254:D254"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A249:D249"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A225:D225"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A241:D241"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A246:D246"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A129:D129"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="A174:D174"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A206:D206"/>
-    <mergeCell ref="A209:D209"/>
-    <mergeCell ref="A214:D214"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A238:D238"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A246:D246"/>
-    <mergeCell ref="A249:D249"/>
-    <mergeCell ref="A254:D254"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="A262:D262"/>
-    <mergeCell ref="A265:D265"/>
-    <mergeCell ref="A270:D270"/>
-    <mergeCell ref="A273:D273"/>
-    <mergeCell ref="A278:D278"/>
-    <mergeCell ref="A281:D281"/>
-    <mergeCell ref="A286:D286"/>
-    <mergeCell ref="A289:D289"/>
-    <mergeCell ref="A294:D294"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5817,7 +5487,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1221 days, 18 hours, 20 minutes </t>
+          <t xml:space="preserve">1298 days, 18 hours, 51 minutes </t>
         </is>
       </c>
     </row>
@@ -5852,7 +5522,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -5955,7 +5625,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>298 weeks, 5 days, 4 hours, 34 minutes</t>
+          <t>309 weeks, 5 days, 5 hours, 8 minutes</t>
         </is>
       </c>
     </row>
@@ -6064,7 +5734,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>0 week, 6 days, 18 hours, 8 minutes</t>
+          <t>11 weeks, 6 days, 18 hours, 42 minutes</t>
         </is>
       </c>
     </row>
@@ -6099,7 +5769,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -6173,7 +5843,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>276 weeks, 0 day, 21 hours, 3 minutes</t>
+          <t>287 weeks, 0 day, 21 hours, 38 minutes</t>
         </is>
       </c>
     </row>
@@ -6282,7 +5952,7 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>0 week, 4 days, 3 hours, 21 minutes</t>
+          <t>11 weeks, 4 days, 3 hours, 55 minutes</t>
         </is>
       </c>
     </row>
@@ -6317,7 +5987,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -6366,13 +6036,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A25:D25"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6426,7 +6096,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>3 years, 11 weeks, 6 days, 20 hours, 56 minutes</t>
+          <t>3 years, 22 weeks, 6 days, 21 hours, 29 minutes</t>
         </is>
       </c>
     </row>
@@ -6465,7 +6135,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -6475,7 +6145,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>3870668K total, 917020K used, 2953648K free</t>
+          <t>3870668K total, 918390K used, 2952278K free</t>
         </is>
       </c>
     </row>
@@ -6539,7 +6209,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>4 years, 20 weeks, 6 days, 12 hours, 40 minutes</t>
+          <t>4 years, 31 weeks, 6 days, 13 hours, 12 minutes</t>
         </is>
       </c>
     </row>
@@ -6577,7 +6247,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -6587,7 +6257,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>3870192K total, 994602K used, 2875590K free</t>
+          <t>3870192K total, 996130K used, 2874062K free</t>
         </is>
       </c>
     </row>
@@ -6626,9 +6296,9 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6682,7 +6352,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>4 years, 30 weeks, 7 hours, 19 minutes</t>
+          <t>4 years, 41 weeks, 7 hours, 51 minutes</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6387,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -6727,7 +6397,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>3937300K total, 1701184K used, 2236116K free</t>
+          <t>3937300K total, 1701272K used, 2236028K free</t>
         </is>
       </c>
     </row>
@@ -6739,10 +6409,10 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>slproc
-1082
-PWR-C2-250WAC
-fed</t>
+          <t>PWR-C2-250WAC
+1078
+fed
+slproc</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -6794,7 +6464,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>5 years, 35 weeks, 5 days, 8 hours, 7 minutes</t>
+          <t>5 years, 46 weeks, 5 days, 8 hours, 36 minutes</t>
         </is>
       </c>
     </row>
@@ -6834,7 +6504,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>413416100 Used:   54794220 Free:  358621880</t>
+          <t>413416100 Used:   54957776 Free:  358458324</t>
         </is>
       </c>
     </row>
@@ -6898,7 +6568,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>10 weeks, 23 hours, 41 minutes</t>
+          <t>21 weeks, 1 day, 13 minutes</t>
         </is>
       </c>
     </row>
@@ -6932,7 +6602,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -6942,7 +6612,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>3930980K total, 1844908K used, 2086072K free</t>
+          <t>3930980K total, 2156892K used, 1774088K free</t>
         </is>
       </c>
     </row>
@@ -6954,13 +6624,13 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>151
+          <t>153
+Not
+fed
+198
+151
+slproc
 891
-fed
-Not
-198
-3271
-slproc
 PWR-C2-250WAC</t>
         </is>
       </c>
@@ -6971,8 +6641,8 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>NOT
-OK</t>
+          <t>OK
+NOT</t>
         </is>
       </c>
     </row>
@@ -7014,7 +6684,7 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>5 years, 29 weeks, 6 days, 22 hours, 58 minutes</t>
+          <t>5 years, 40 weeks, 6 days, 23 hours, 29 minutes</t>
         </is>
       </c>
     </row>
@@ -7044,7 +6714,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -7054,7 +6724,7 @@
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>413407844 Used:   54368900 Free:  359038944</t>
+          <t>413407844 Used:   54468316 Free:  358939528</t>
         </is>
       </c>
     </row>
@@ -7118,7 +6788,7 @@
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>5 years, 35 weeks, 5 days, 7 hours, 54 minutes</t>
+          <t>5 years, 46 weeks, 5 days, 8 hours, 23 minutes</t>
         </is>
       </c>
     </row>
@@ -7148,7 +6818,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -7158,7 +6828,7 @@
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>413416100 Used:   54787472 Free:  358628628</t>
+          <t>413416100 Used:   54891392 Free:  358524708</t>
         </is>
       </c>
     </row>
@@ -7222,7 +6892,7 @@
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>5 years, 19 weeks, 1 day, 25 minutes</t>
+          <t>5 years, 30 weeks, 1 day, 55 minutes</t>
         </is>
       </c>
     </row>
@@ -7252,7 +6922,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -7262,7 +6932,7 @@
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>442793380 Used:   48265400 Free:  394527980</t>
+          <t>442793380 Used:   48114164 Free:  394679216</t>
         </is>
       </c>
     </row>
@@ -7326,7 +6996,7 @@
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>5 years, 21 weeks, 1 day, 21 hours, 21 minutes</t>
+          <t>5 years, 32 weeks, 1 day, 21 hours, 51 minutes</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7026,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -7366,7 +7036,7 @@
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>413407844 Used:   55614984 Free:  357792860</t>
+          <t>413407844 Used:   55727384 Free:  357680460</t>
         </is>
       </c>
     </row>
@@ -7430,7 +7100,7 @@
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>5 years, 35 weeks, 5 days, 7 hours, 32 minutes</t>
+          <t>5 years, 46 weeks, 5 days, 8 hours, 0 minutes</t>
         </is>
       </c>
     </row>
@@ -7460,7 +7130,7 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -7470,7 +7140,7 @@
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>430291588 Used:   54234348 Free:  376057240</t>
+          <t>430291588 Used:   54344004 Free:  375947584</t>
         </is>
       </c>
     </row>
@@ -7534,7 +7204,7 @@
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>4 years, 35 weeks, 5 hours, 59 minutes</t>
+          <t>4 years, 46 weeks, 6 hours, 26 minutes</t>
         </is>
       </c>
     </row>
@@ -7574,7 +7244,7 @@
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>442868516 Used:   46450056 Free:  396418460</t>
+          <t>442868516 Used:   46570556 Free:  396297960</t>
         </is>
       </c>
     </row>
@@ -7638,7 +7308,7 @@
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>5 years, 34 weeks, 5 days, 7 hours, 41 minutes</t>
+          <t>5 years, 45 weeks, 5 days, 8 hours, 8 minutes</t>
         </is>
       </c>
     </row>
@@ -7668,7 +7338,7 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -7678,7 +7348,7 @@
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>442865060 Used:   44110288 Free:  398754772</t>
+          <t>442865060 Used:   44214632 Free:  398650428</t>
         </is>
       </c>
     </row>
@@ -7742,7 +7412,7 @@
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>5 years, 32 weeks, 16 hours, 44 minutes</t>
+          <t>5 years, 43 weeks, 17 hours, 20 minutes</t>
         </is>
       </c>
     </row>
@@ -7772,7 +7442,7 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -7782,7 +7452,7 @@
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>187641736 Used:   46626516 Free:  141015220</t>
+          <t>187641736 Used:   46722980 Free:  140918756</t>
         </is>
       </c>
     </row>
@@ -7846,7 +7516,7 @@
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>4 years, 45 weeks, 17 hours, 23 minutes</t>
+          <t>5 years, 3 weeks, 6 days, 17 hours, 49 minutes</t>
         </is>
       </c>
     </row>
@@ -7876,7 +7546,7 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>24%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -7886,7 +7556,7 @@
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>442796836 Used:   44322484 Free:  398474352</t>
+          <t>442796836 Used:   44422764 Free:  398374072</t>
         </is>
       </c>
     </row>
@@ -7950,7 +7620,7 @@
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>4 years, 26 weeks, 2 days, 1 hour, 31 minutes</t>
+          <t>4 years, 37 weeks, 2 days, 1 hour, 54 minutes</t>
         </is>
       </c>
     </row>
@@ -7980,7 +7650,7 @@
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -7990,7 +7660,7 @@
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>430291588 Used:   52166316 Free:  378125272</t>
+          <t>430291588 Used:   52284468 Free:  378007120</t>
         </is>
       </c>
     </row>
@@ -8054,7 +7724,7 @@
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>4 years, 38 weeks, 6 days, 19 hours, 59 minutes</t>
+          <t>4 years, 49 weeks, 6 days, 20 hours, 29 minutes</t>
         </is>
       </c>
     </row>
@@ -8084,7 +7754,7 @@
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -8094,7 +7764,7 @@
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>413407844 Used:   56524404 Free:  356883440</t>
+          <t>413407844 Used:   56633464 Free:  356774380</t>
         </is>
       </c>
     </row>
@@ -8158,7 +7828,7 @@
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>5 years, 15 weeks, 2 days, 3 hours, 57 minutes</t>
+          <t>5 years, 26 weeks, 2 days, 4 hours, 29 minutes</t>
         </is>
       </c>
     </row>
@@ -8202,7 +7872,7 @@
       </c>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>3937300K total, 1654808K used, 2282492K free</t>
+          <t>3937300K total, 1653604K used, 2283696K free</t>
         </is>
       </c>
     </row>
@@ -8214,12 +7884,12 @@
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>fed
-Not
-1193
+          <t>Not
+fed
+1192
 slproc
 PWR-C2-250WAC
-24.7</t>
+24.9</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
@@ -8229,8 +7899,8 @@
       </c>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>NOT
-OK</t>
+          <t>OK
+NOT</t>
         </is>
       </c>
     </row>
@@ -8272,7 +7942,7 @@
       </c>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t>5 years, 11 weeks, 4 hours, 47 minutes</t>
+          <t>5 years, 22 weeks, 5 hours, 20 minutes</t>
         </is>
       </c>
     </row>
@@ -8307,7 +7977,7 @@
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>97%</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -8317,7 +7987,7 @@
       </c>
       <c r="D124" s="3" t="inlineStr">
         <is>
-          <t>3937300K total, 1769080K used, 2168220K free</t>
+          <t>3937300K total, 1768580K used, 2168720K free</t>
         </is>
       </c>
     </row>
@@ -8329,10 +7999,10 @@
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>slproc
-PWR-C2-250WAC
-966
-fed</t>
+          <t>PWR-C2-250WAC
+fed
+975
+slproc</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
@@ -8384,7 +8054,7 @@
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>5 years, 35 weeks, 5 days, 9 hours, 4 minutes</t>
+          <t>5 years, 46 weeks, 5 days, 9 hours, 35 minutes</t>
         </is>
       </c>
     </row>
@@ -8414,7 +8084,7 @@
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -8424,7 +8094,7 @@
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>413416100 Used:   55126280 Free:  358289820</t>
+          <t>413416100 Used:   55240976 Free:  358175124</t>
         </is>
       </c>
     </row>
@@ -8462,40 +8132,40 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A49:D49"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A110:D110"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A54:D54"/>
     <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A65:D65"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A110:D110"/>
     <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/network_automation_app/device_information/设备巡检/设备巡检表.xlsx
+++ b/network_automation_app/device_information/设备巡检/设备巡检表.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">775 days, 23 hours, 24 minutes </t>
+          <t xml:space="preserve">828 days, 21 hours, 49 minutes </t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">775 days, 22 hours, 49 minutes </t>
+          <t xml:space="preserve">828 days, 21 hours, 14 minutes </t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1788 days, 5 hours, 40 minutes </t>
+          <t xml:space="preserve">1841 days, 4 hours, 5 minutes </t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>31%</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">453 days, 1 hour, 16 minutes </t>
+          <t xml:space="preserve">505 days, 23 hours, 41 minutes </t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1804 days, 4 hours, 21 minutes </t>
+          <t xml:space="preserve">1857 days, 2 hours, 45 minutes </t>
         </is>
       </c>
     </row>
@@ -987,8 +987,7 @@
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>CE88-D16Q: 2
-CE88-D24S2CQ: 1</t>
+          <t>CE88-D16Q: 2</t>
         </is>
       </c>
     </row>
@@ -1000,7 +999,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1074,7 +1073,7 @@
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">378 days, 1 hour, 2 minutes </t>
+          <t xml:space="preserve">430 days, 23 hours, 27 minutes </t>
         </is>
       </c>
     </row>
@@ -1096,8 +1095,7 @@
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>CE88-D16Q: 2
-CE88-D24S2CQ: 1</t>
+          <t>CE88-D16Q: 2</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1107,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1183,7 +1181,7 @@
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1402 days, 22 hours, 45 minutes </t>
+          <t xml:space="preserve">1455 days, 21 hours, 10 minutes </t>
         </is>
       </c>
     </row>
@@ -1218,7 +1216,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -1292,7 +1290,7 @@
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1402 days, 22 hours, 37 minutes </t>
+          <t xml:space="preserve">1455 days, 21 hours, 2 minutes </t>
         </is>
       </c>
     </row>
@@ -1327,7 +1325,7 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -1444,7 +1442,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1101 days, 14 hours, 39 minutes </t>
+          <t>1154 days, 13 hours, 0 minute</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1477,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1553,7 +1551,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">994 days, 0 hour, 44 minutes </t>
+          <t xml:space="preserve">1046 days, 23 hours, 7 minutes </t>
         </is>
       </c>
     </row>
@@ -1588,7 +1586,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -1662,7 +1660,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2023 days, 18 hours, 45 minutes </t>
+          <t xml:space="preserve">2076 days, 17 hours, 8 minutes </t>
         </is>
       </c>
     </row>
@@ -1685,7 +1683,7 @@
       <c r="D19" s="3" t="inlineStr">
         <is>
           <t>CE-L48XS-ED: 1
-CE-L24LQ-EC1: 4</t>
+CE-L24LQ-EC1: 3</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1695,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1707,7 +1705,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>17%</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1769,7 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021 days, 20 hours, 29 minutes </t>
+          <t xml:space="preserve">2074 days, 18 hours, 52 minutes </t>
         </is>
       </c>
     </row>
@@ -1806,7 +1804,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1873,7 +1871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D254"/>
+  <dimension ref="A1:D246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1913,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1596 days, 1 hour, 44 minutes </t>
+          <t xml:space="preserve">1649 days, 0 hour, 9 minutes </t>
         </is>
       </c>
     </row>
@@ -1950,7 +1948,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -2024,7 +2022,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">376 days, 1 hour, 3 minutes </t>
+          <t xml:space="preserve">428 days, 23 hours, 28 minutes </t>
         </is>
       </c>
     </row>
@@ -2058,7 +2056,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -2132,7 +2130,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1944 days, 1 hour, 45 minutes </t>
+          <t xml:space="preserve">1997 days, 0 hour, 11 minutes </t>
         </is>
       </c>
     </row>
@@ -2167,7 +2165,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -2177,7 +2175,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2239,7 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2224 days, 1 hour, 16 minutes </t>
+          <t xml:space="preserve">2276 days, 23 hours, 41 minutes </t>
         </is>
       </c>
     </row>
@@ -2271,7 +2269,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -2345,7 +2343,7 @@
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2149 days, 2 hours, 28 minutes </t>
+          <t xml:space="preserve">2202 days, 0 hour, 54 minutes </t>
         </is>
       </c>
     </row>
@@ -2380,7 +2378,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -2429,7 +2427,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>FD-1F-G05-CE5855</t>
+          <t>FD-1F-G08-CE5855</t>
         </is>
       </c>
       <c r="B41" s="2" t="n"/>
@@ -2454,7 +2452,7 @@
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2119 days, 4 hours, 49 minutes </t>
+          <t xml:space="preserve">1835 days, 7 hours, 50 minutes </t>
         </is>
       </c>
     </row>
@@ -2466,8 +2464,8 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>2102350GTU6TH5000507
-2102350GTU6TH6000024</t>
+          <t>2102350GTU6TJ1000041
+2102350GTU6TJ1000084</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -2489,7 +2487,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -2499,7 +2497,7 @@
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2536,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>FD-1F-G08-CE5855</t>
+          <t>FD-1F-G12-CE5855</t>
         </is>
       </c>
       <c r="B49" s="2" t="n"/>
@@ -2563,7 +2561,7 @@
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1782 days, 9 hours, 24 minutes </t>
+          <t xml:space="preserve">1919 days, 21 hours, 34 minutes </t>
         </is>
       </c>
     </row>
@@ -2575,8 +2573,8 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>2102350GTU6TJ1000041
-2102350GTU6TJ1000084</t>
+          <t>2102350GTU6TJ1000106
+2102350GTU6TJ1000021</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2598,7 +2596,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2647,7 +2645,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>FD-1F-G12-CE5855</t>
+          <t>FD4-D01&amp;D03-CE6850-1</t>
         </is>
       </c>
       <c r="B57" s="2" t="n"/>
@@ -2662,7 +2660,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>CE5855-48T4S2Q-EI</t>
+          <t>CE6850-48T6Q-HI</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2672,7 +2670,7 @@
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1866 days, 23 hours, 8 minutes </t>
+          <t xml:space="preserve">1153 days, 15 hours, 53 minutes </t>
         </is>
       </c>
     </row>
@@ -2684,8 +2682,8 @@
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>2102350GTU6TJ1000106
-2102350GTU6TJ1000021</t>
+          <t>2102350EWL6TJ4000010
+2102350EWL6TJ4000022</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -2707,7 +2705,7 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -2717,7 +2715,7 @@
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2754,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>FD4-D01&amp;D03-CE6850-1</t>
+          <t>FD4-D02&amp;D04-CE6850-1</t>
         </is>
       </c>
       <c r="B65" s="2" t="n"/>
@@ -2781,7 +2779,7 @@
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1100 days, 17 hours, 27 minutes </t>
+          <t xml:space="preserve">1127 days, 21 hours, 51 minutes </t>
         </is>
       </c>
     </row>
@@ -2793,8 +2791,8 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TJ4000010
-2102350EWL6TJ4000022</t>
+          <t>2102350EWL6TJ4000021
+2102350EWL6TJ4000017</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -2816,7 +2814,7 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -2826,7 +2824,7 @@
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2863,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>FD4-D02&amp;D04-CE6850-1</t>
+          <t>FD4-D05&amp;D07-CE6850-1</t>
         </is>
       </c>
       <c r="B73" s="2" t="n"/>
@@ -2880,7 +2878,7 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>CE6850-48T6Q-HI</t>
+          <t>CE6855-48T6Q-HI</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -2890,7 +2888,7 @@
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1074 days, 23 hours, 26 minutes </t>
+          <t xml:space="preserve">1153 days, 14 hours, 54 minutes </t>
         </is>
       </c>
     </row>
@@ -2902,8 +2900,8 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TJ4000021
-2102350EWL6TJ4000017</t>
+          <t>2102350QAJDMK7000090
+2102350QAJDMK7000130</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -2925,7 +2923,7 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -2935,7 +2933,7 @@
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2972,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>FD4-D05&amp;D07-CE6850-1</t>
+          <t>FD4-D09&amp;D11-CE6850-1</t>
         </is>
       </c>
       <c r="B81" s="2" t="n"/>
@@ -2999,7 +2997,7 @@
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1100 days, 16 hours, 28 minutes </t>
+          <t xml:space="preserve">1152 days, 16 hours, 28 minutes </t>
         </is>
       </c>
     </row>
@@ -3011,8 +3009,8 @@
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>2102350QAJDMK7000090
-2102350QAJDMK7000130</t>
+          <t>2102350QAJDMK7000089
+2102350QAJDMK7000136</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -3034,7 +3032,7 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>18%</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -3044,7 +3042,7 @@
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>65%</t>
         </is>
       </c>
     </row>
@@ -3083,7 +3081,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>FD4-D09&amp;D11-CE6850-1</t>
+          <t>FD4-D14&amp;D16-CE6850-1</t>
         </is>
       </c>
       <c r="B89" s="2" t="n"/>
@@ -3098,7 +3096,7 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>CE6855-48T6Q-HI</t>
+          <t>CE6850-48T6Q-HI</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -3108,7 +3106,7 @@
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1099 days, 18 hours, 2 minutes </t>
+          <t xml:space="preserve">1126 days, 21 hours, 37 minutes </t>
         </is>
       </c>
     </row>
@@ -3120,8 +3118,8 @@
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>2102350QAJDMK7000089
-2102350QAJDMK7000136</t>
+          <t>2102350EWK6THC000014
+2102350EWK6THC000023</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -3143,7 +3141,7 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -3153,7 +3151,7 @@
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3190,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>FD4-D14&amp;D16-CE6850-1</t>
+          <t>FD4-D17&amp;D19-CE6850-1</t>
         </is>
       </c>
       <c r="B97" s="2" t="n"/>
@@ -3217,7 +3215,7 @@
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1073 days, 23 hours, 11 minutes </t>
+          <t xml:space="preserve">1152 days, 0 hour, 59 minutes </t>
         </is>
       </c>
     </row>
@@ -3229,8 +3227,8 @@
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>2102350EWK6THC000014
-2102350EWK6THC000023</t>
+          <t>2102350EWL6TJ1000025
+2102350EWL6TJ1000015</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -3252,7 +3250,7 @@
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -3301,7 +3299,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>FD4-D17&amp;D19-CE6850-1</t>
+          <t>FD4-D22-CE6850-1</t>
         </is>
       </c>
       <c r="B105" s="2" t="n"/>
@@ -3326,7 +3324,7 @@
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1099 days, 2 hours, 33 minutes </t>
+          <t xml:space="preserve">1121 days, 21 hours, 38 minutes </t>
         </is>
       </c>
     </row>
@@ -3338,8 +3336,7 @@
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TJ1000025
-2102350EWL6TJ1000015</t>
+          <t>2102350EWK6THC000013</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
@@ -3410,7 +3407,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>FD4-D22-CE6850-1</t>
+          <t>XY-2F-C01&amp;C02-CE6850</t>
         </is>
       </c>
       <c r="B113" s="2" t="n"/>
@@ -3435,7 +3432,7 @@
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1068 days, 23 hours, 12 minutes </t>
+          <t xml:space="preserve">1863 days, 0 hour, 22 minutes </t>
         </is>
       </c>
     </row>
@@ -3447,7 +3444,8 @@
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>2102350EWK6THC000013</t>
+          <t>2102350EWL6TGA000016
+2102350EWL10GB000018</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -3469,7 +3467,7 @@
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -3518,7 +3516,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-C01&amp;C02-CE6850</t>
+          <t>XY-2F-C03&amp;C04-CE6850</t>
         </is>
       </c>
       <c r="B121" s="2" t="n"/>
@@ -3543,7 +3541,7 @@
       </c>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1810 days, 1 hour, 56 minutes </t>
+          <t xml:space="preserve">1862 days, 4 hours, 16 minutes </t>
         </is>
       </c>
     </row>
@@ -3555,8 +3553,8 @@
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TGA000016
-2102350EWL10GB000018</t>
+          <t>2102350EWL10GC000031
+2102350EWL6TGA000049</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -3578,7 +3576,7 @@
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -3588,7 +3586,7 @@
       </c>
       <c r="D124" s="3" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3625,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-C03&amp;C04-CE6850</t>
+          <t>XY-2F-C05&amp;C06-CE6851</t>
         </is>
       </c>
       <c r="B129" s="2" t="n"/>
@@ -3652,7 +3650,7 @@
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1809 days, 5 hours, 50 minutes </t>
+          <t xml:space="preserve">1793 days, 3 hours, 31 minutes </t>
         </is>
       </c>
     </row>
@@ -3664,8 +3662,8 @@
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL10GC000031
-2102350EWL6TGA000049</t>
+          <t>2102350EWL6TJ4000031
+2102350EWL6TJ4000028</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -3687,7 +3685,7 @@
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -3697,7 +3695,7 @@
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>63%</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3734,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-C05&amp;C06-CE6851</t>
+          <t>XY-2F-C07&amp;C08-CE6851</t>
         </is>
       </c>
       <c r="B137" s="2" t="n"/>
@@ -3761,7 +3759,7 @@
       </c>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1740 days, 5 hours, 6 minutes </t>
+          <t xml:space="preserve">1793 days, 3 hours, 41 minutes </t>
         </is>
       </c>
     </row>
@@ -3773,8 +3771,8 @@
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TJ4000031
-2102350EWL6TJ4000028</t>
+          <t>2102350EWL6TJ4000032
+2102350EWL6TJ4000026</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
@@ -3796,7 +3794,7 @@
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -3806,7 +3804,7 @@
       </c>
       <c r="D140" s="3" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -3845,7 +3843,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-C07&amp;C08-CE6851</t>
+          <t>XY-2F-D03&amp;D04-CE6850</t>
         </is>
       </c>
       <c r="B145" s="2" t="n"/>
@@ -3870,7 +3868,7 @@
       </c>
       <c r="D146" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1740 days, 5 hours, 15 minutes </t>
+          <t xml:space="preserve">1661 days, 2 hours, 8 minutes </t>
         </is>
       </c>
     </row>
@@ -3882,8 +3880,8 @@
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TJ4000032
-2102350EWL6TJ4000026</t>
+          <t>2102350EWL6TJ7000005
+2102350EWL6TJ7000011</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -3905,7 +3903,7 @@
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -3915,7 +3913,7 @@
       </c>
       <c r="D148" s="3" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>64%</t>
         </is>
       </c>
     </row>
@@ -3954,7 +3952,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-D03&amp;D04-CE6850</t>
+          <t>XY-2F-D06-CE6850</t>
         </is>
       </c>
       <c r="B153" s="2" t="n"/>
@@ -3979,7 +3977,7 @@
       </c>
       <c r="D154" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1608 days, 3 hours, 42 minutes </t>
+          <t xml:space="preserve">1912 days, 4 hours, 14 minutes </t>
         </is>
       </c>
     </row>
@@ -3991,8 +3989,8 @@
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TJ7000005
-2102350EWL6TJ7000011</t>
+          <t>2102350EWL6TGA000035
+2102350EWL10GC000071</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
@@ -4014,7 +4012,7 @@
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -4024,7 +4022,7 @@
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4061,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-D06-CE6850</t>
+          <t>XY-2F-D08-CE6850</t>
         </is>
       </c>
       <c r="B161" s="2" t="n"/>
@@ -4088,7 +4086,7 @@
       </c>
       <c r="D162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1859 days, 5 hours, 48 minutes </t>
+          <t xml:space="preserve">1912 days, 4 hours, 6 minutes </t>
         </is>
       </c>
     </row>
@@ -4100,8 +4098,8 @@
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TGA000035
-2102350EWL10GC000071</t>
+          <t>2102350EWL10GC000081
+2102350EWL10GB000035</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
@@ -4123,7 +4121,7 @@
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -4133,7 +4131,7 @@
       </c>
       <c r="D164" s="3" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4170,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-D08-CE6850</t>
+          <t>XY-2F-E01&amp;E02-CE6850</t>
         </is>
       </c>
       <c r="B169" s="2" t="n"/>
@@ -4197,7 +4195,7 @@
       </c>
       <c r="D170" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1859 days, 5 hours, 40 minutes </t>
+          <t>2075 days, 5 hours, 0 minute</t>
         </is>
       </c>
     </row>
@@ -4209,8 +4207,8 @@
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL10GC000081
-2102350EWL10GB000035</t>
+          <t>2102350EWL6TH9000022
+2102350EWL6TH9000019</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -4242,7 +4240,7 @@
       </c>
       <c r="D172" s="3" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>66%</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4279,7 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-E01&amp;E02-CE6850</t>
+          <t>XY-2F-E04-CE685</t>
         </is>
       </c>
       <c r="B177" s="2" t="n"/>
@@ -4306,7 +4304,7 @@
       </c>
       <c r="D178" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2022 days, 6 hours, 34 minutes </t>
+          <t xml:space="preserve">2080 days, 4 hours, 53 minutes </t>
         </is>
       </c>
     </row>
@@ -4318,8 +4316,8 @@
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TH9000022
-2102350EWL6TH9000019</t>
+          <t>2102350EWL6TH9000018
+2102350EWL6TH9000012</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
@@ -4341,7 +4339,7 @@
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -4390,7 +4388,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-E04-CE685</t>
+          <t>XY-2F-E05&amp;E06-CE6810</t>
         </is>
       </c>
       <c r="B185" s="2" t="n"/>
@@ -4405,7 +4403,7 @@
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>CE6850-48T6Q-HI</t>
+          <t>CE6810-32T16S4Q-LI</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -4415,7 +4413,7 @@
       </c>
       <c r="D186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2027 days, 6 hours, 27 minutes </t>
+          <t xml:space="preserve">2076 days, 22 hours, 38 minutes </t>
         </is>
       </c>
     </row>
@@ -4427,8 +4425,8 @@
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TH9000018
-2102350EWL6TH9000012</t>
+          <t>2102350EWE10HA000033
+2102350EWE10HA000032</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
@@ -4450,7 +4448,7 @@
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -4460,7 +4458,7 @@
       </c>
       <c r="D188" s="3" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>46%</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4497,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-E05&amp;E06-CE6810</t>
+          <t>XY-2F-E07&amp;E08-CE6850</t>
         </is>
       </c>
       <c r="B193" s="2" t="n"/>
@@ -4514,7 +4512,7 @@
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>CE6810-32T16S4Q-LI</t>
+          <t>CE6850-48T6Q-HI</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -4524,7 +4522,7 @@
       </c>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024 days, 0 hour, 15 minutes </t>
+          <t xml:space="preserve">2080 days, 4 hours, 42 minutes </t>
         </is>
       </c>
     </row>
@@ -4536,8 +4534,8 @@
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>2102350EWE10HA000033
-2102350EWE10HA000032</t>
+          <t>2102350EWL6TH9000011
+2102350EWL6TH9000021</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
@@ -4559,7 +4557,7 @@
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -4569,7 +4567,7 @@
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4589,8 @@
       </c>
       <c r="D197" s="3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Abnormal
+Normal</t>
         </is>
       </c>
     </row>
@@ -4608,7 +4607,7 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-E07&amp;E08-CE6850</t>
+          <t>XY-2F-E09&amp;E10-CE6850</t>
         </is>
       </c>
       <c r="B201" s="2" t="n"/>
@@ -4633,7 +4632,7 @@
       </c>
       <c r="D202" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2027 days, 6 hours, 16 minutes </t>
+          <t xml:space="preserve">2080 days, 4 hours, 50 minutes </t>
         </is>
       </c>
     </row>
@@ -4645,8 +4644,8 @@
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TH9000011
-2102350EWL6TH9000021</t>
+          <t>2102350EWL6TH9000030
+2102350EWL6TH9000029</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
@@ -4668,7 +4667,7 @@
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
@@ -4678,7 +4677,7 @@
       </c>
       <c r="D204" s="3" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -4700,8 +4699,7 @@
       </c>
       <c r="D205" s="3" t="inlineStr">
         <is>
-          <t>Abnormal
-Normal</t>
+          <t>Normal</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4716,7 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-E09&amp;E10-CE6850</t>
+          <t>XY-2F-F01&amp;F02-CE6850</t>
         </is>
       </c>
       <c r="B209" s="2" t="n"/>
@@ -4743,7 +4741,7 @@
       </c>
       <c r="D210" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2027 days, 6 hours, 24 minutes </t>
+          <t xml:space="preserve">2063 days, 0 hour, 55 minutes </t>
         </is>
       </c>
     </row>
@@ -4755,8 +4753,8 @@
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TH9000030
-2102350EWL6TH9000029</t>
+          <t>2102350EWL6TH9000006
+2102350EWL6TH8000002</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
@@ -4778,7 +4776,7 @@
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
@@ -4827,7 +4825,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-F01&amp;F02-CE6850</t>
+          <t>XY-2F-F03&amp;F04-CE6850</t>
         </is>
       </c>
       <c r="B217" s="2" t="n"/>
@@ -4852,7 +4850,7 @@
       </c>
       <c r="D218" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2010 days, 2 hours, 29 minutes </t>
+          <t xml:space="preserve">2063 days, 0 hour, 59 minutes </t>
         </is>
       </c>
     </row>
@@ -4864,8 +4862,8 @@
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6TH9000006
-2102350EWL6TH8000002</t>
+          <t>2102350EWL6THA000002
+2102350EWL6THA000037</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
@@ -4887,7 +4885,7 @@
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
@@ -4897,7 +4895,7 @@
       </c>
       <c r="D220" s="3" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4934,7 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-F03&amp;F04-CE6850</t>
+          <t>XY-2F-F05&amp;F06-CE6850</t>
         </is>
       </c>
       <c r="B225" s="2" t="n"/>
@@ -4961,7 +4959,7 @@
       </c>
       <c r="D226" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2010 days, 2 hours, 33 minutes </t>
+          <t xml:space="preserve">2063 days, 1 hour, 4 minutes </t>
         </is>
       </c>
     </row>
@@ -4973,8 +4971,8 @@
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6THA000002
-2102350EWL6THA000037</t>
+          <t>2102350EWL6THA000026
+2102350EWL6THA000020</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
@@ -4996,7 +4994,7 @@
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
@@ -5045,7 +5043,7 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-F05&amp;F06-CE6850</t>
+          <t>XY-2F-F07&amp;F08-CE6850</t>
         </is>
       </c>
       <c r="B233" s="2" t="n"/>
@@ -5070,7 +5068,7 @@
       </c>
       <c r="D234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2010 days, 2 hours, 39 minutes </t>
+          <t xml:space="preserve">2063 days, 0 hour, 56 minutes </t>
         </is>
       </c>
     </row>
@@ -5082,8 +5080,8 @@
       </c>
       <c r="B235" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6THA000026
-2102350EWL6THA000020</t>
+          <t>2102350EWL6THA000007
+2102350EWL6THA000025</t>
         </is>
       </c>
       <c r="C235" s="3" t="inlineStr">
@@ -5105,7 +5103,7 @@
       </c>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr">
@@ -5154,7 +5152,7 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-F07&amp;F08-CE6850</t>
+          <t>XY-2F-D09-CE6850</t>
         </is>
       </c>
       <c r="B241" s="2" t="n"/>
@@ -5179,7 +5177,7 @@
       </c>
       <c r="D242" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2010 days, 2 hours, 30 minutes </t>
+          <t xml:space="preserve">443 days, 2 hours, 22 minutes </t>
         </is>
       </c>
     </row>
@@ -5191,8 +5189,7 @@
       </c>
       <c r="B243" s="3" t="inlineStr">
         <is>
-          <t>2102350EWL6THA000007
-2102350EWL6THA000025</t>
+          <t>2102350EWL10GC000083</t>
         </is>
       </c>
       <c r="C243" s="3" t="inlineStr">
@@ -5214,7 +5211,7 @@
       </c>
       <c r="B244" s="3" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="C244" s="3" t="inlineStr">
@@ -5224,7 +5221,7 @@
       </c>
       <c r="D244" s="3" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>61%</t>
         </is>
       </c>
     </row>
@@ -5260,116 +5257,8 @@
       <c r="C246" s="4" t="n"/>
       <c r="D246" s="5" t="n"/>
     </row>
-    <row r="249">
-      <c r="A249" s="1" t="inlineStr">
-        <is>
-          <t>XY-2F-D09-CE6850</t>
-        </is>
-      </c>
-      <c r="B249" s="2" t="n"/>
-      <c r="C249" s="2" t="n"/>
-      <c r="D249" s="2" t="n"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="3" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="B250" s="3" t="inlineStr">
-        <is>
-          <t>CE6850-48T6Q-HI</t>
-        </is>
-      </c>
-      <c r="C250" s="3" t="inlineStr">
-        <is>
-          <t>运行时间</t>
-        </is>
-      </c>
-      <c r="D250" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">390 days, 3 hours, 57 minutes </t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="3" t="inlineStr">
-        <is>
-          <t>序列号</t>
-        </is>
-      </c>
-      <c r="B251" s="3" t="inlineStr">
-        <is>
-          <t>2102350EWL10GC000083</t>
-        </is>
-      </c>
-      <c r="C251" s="3" t="inlineStr">
-        <is>
-          <t>板卡信息</t>
-        </is>
-      </c>
-      <c r="D251" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="3" t="inlineStr">
-        <is>
-          <t>CPU_usage</t>
-        </is>
-      </c>
-      <c r="B252" s="3" t="inlineStr">
-        <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="C252" s="3" t="inlineStr">
-        <is>
-          <t>Memory_usage</t>
-        </is>
-      </c>
-      <c r="D252" s="3" t="inlineStr">
-        <is>
-          <t>61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="3" t="inlineStr">
-        <is>
-          <t>电源状态</t>
-        </is>
-      </c>
-      <c r="B253" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C253" s="3" t="inlineStr">
-        <is>
-          <t>风扇状态</t>
-        </is>
-      </c>
-      <c r="D253" s="3" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="3" t="inlineStr">
-        <is>
-          <t>本月无硬件告警</t>
-        </is>
-      </c>
-      <c r="B254" s="4" t="n"/>
-      <c r="C254" s="4" t="n"/>
-      <c r="D254" s="5" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="62">
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A150:D150"/>
     <mergeCell ref="A126:D126"/>
@@ -5383,12 +5272,10 @@
     <mergeCell ref="A185:D185"/>
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A254:D254"/>
     <mergeCell ref="A121:D121"/>
     <mergeCell ref="A161:D161"/>
     <mergeCell ref="A230:D230"/>
     <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A249:D249"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A201:D201"/>
@@ -5487,7 +5374,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1298 days, 18 hours, 51 minutes </t>
+          <t xml:space="preserve">1351 days, 17 hours, 14 minutes </t>
         </is>
       </c>
     </row>
@@ -5510,7 +5397,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>LAN_WAN_4x10GXD_CARD: 5</t>
+          <t>LAN_WAN_4x10GXD_CARD: 3</t>
         </is>
       </c>
     </row>
@@ -5522,7 +5409,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -5625,7 +5512,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>309 weeks, 5 days, 5 hours, 8 minutes</t>
+          <t>317 weeks, 2 days, 3 hours, 32 minutes</t>
         </is>
       </c>
     </row>
@@ -5734,7 +5621,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>11 weeks, 6 days, 18 hours, 42 minutes</t>
+          <t>19 weeks, 3 days, 17 hours, 7 minutes</t>
         </is>
       </c>
     </row>
@@ -5769,7 +5656,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -5843,7 +5730,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>287 weeks, 0 day, 21 hours, 38 minutes</t>
+          <t>294 weeks, 4 days, 20 hours, 3 minutes</t>
         </is>
       </c>
     </row>
@@ -5952,7 +5839,7 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>11 weeks, 4 days, 3 hours, 55 minutes</t>
+          <t>19 weeks, 1 day, 2 hours, 19 minutes</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5874,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -6096,7 +5983,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>3 years, 22 weeks, 6 days, 21 hours, 29 minutes</t>
+          <t>3 years, 30 weeks, 3 days, 19 hours, 52 minutes</t>
         </is>
       </c>
     </row>
@@ -6135,7 +6022,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -6145,7 +6032,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>3870668K total, 918390K used, 2952278K free</t>
+          <t>3870668K total, 919830K used, 2950838K free</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6096,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>4 years, 31 weeks, 6 days, 13 hours, 12 minutes</t>
+          <t>4 years, 39 weeks, 3 days, 11 hours, 36 minutes</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6134,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -6257,7 +6144,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>3870192K total, 996130K used, 2874062K free</t>
+          <t>3870192K total, 996497K used, 2873695K free</t>
         </is>
       </c>
     </row>
@@ -6310,7 +6197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6352,7 +6239,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>4 years, 41 weeks, 7 hours, 51 minutes</t>
+          <t>4 years, 48 weeks, 4 days, 6 hours, 15 minutes</t>
         </is>
       </c>
     </row>
@@ -6387,7 +6274,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>98%</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -6397,7 +6284,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>3937300K total, 1701272K used, 2236028K free</t>
+          <t>3937300K total, 1702024K used, 2235276K free</t>
         </is>
       </c>
     </row>
@@ -6410,8 +6297,8 @@
       <c r="B5" s="3" t="inlineStr">
         <is>
           <t>PWR-C2-250WAC
-1078
 fed
+1075
 slproc</t>
         </is>
       </c>
@@ -6464,7 +6351,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>5 years, 46 weeks, 5 days, 8 hours, 36 minutes</t>
+          <t>6 years, 2 weeks, 1 day, 6 hours, 57 minutes</t>
         </is>
       </c>
     </row>
@@ -6494,7 +6381,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -6504,7 +6391,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>413416100 Used:   54957776 Free:  358458324</t>
+          <t>413416100 Used:   55081272 Free:  358334828</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6430,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FD-1F-C07-3650-8.31</t>
+          <t>FD-1F-C24-2960-8.25</t>
         </is>
       </c>
       <c r="B17" s="2" t="n"/>
@@ -6558,7 +6445,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>WS-C3650-48TQ</t>
+          <t>WS-C2960X-48TD-L</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -6568,7 +6455,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>21 weeks, 1 day, 13 minutes</t>
+          <t>5 years, 48 weeks, 3 days, 21 hours, 51 minutes</t>
         </is>
       </c>
     </row>
@@ -6578,11 +6465,7 @@
           <t>序列号</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>FDO2004Q17P</t>
-        </is>
-      </c>
+      <c r="B19" s="3" t="inlineStr"/>
       <c r="C19" s="3" t="inlineStr">
         <is>
           <t>板卡信息</t>
@@ -6602,7 +6485,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -6612,7 +6495,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>3930980K total, 2156892K used, 1774088K free</t>
+          <t>413407844 Used:   54507896 Free:  358899948</t>
         </is>
       </c>
     </row>
@@ -6624,14 +6507,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>153
-Not
-fed
-198
-151
-slproc
-891
-PWR-C2-250WAC</t>
+          <t>——</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -6641,8 +6517,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>OK
-NOT</t>
+          <t>——</t>
         </is>
       </c>
     </row>
@@ -6659,7 +6534,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>FD-1F-C24-2960-8.25</t>
+          <t>FD-1F-D29-2960-8.37</t>
         </is>
       </c>
       <c r="B25" s="2" t="n"/>
@@ -6684,7 +6559,7 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>5 years, 40 weeks, 6 days, 23 hours, 29 minutes</t>
+          <t>6 years, 2 weeks, 1 day, 6 hours, 45 minutes</t>
         </is>
       </c>
     </row>
@@ -6714,7 +6589,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -6724,7 +6599,7 @@
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>413407844 Used:   54468316 Free:  358939528</t>
+          <t>413416100 Used:   55023624 Free:  358392476</t>
         </is>
       </c>
     </row>
@@ -6763,7 +6638,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>FD-1F-D29-2960-8.37</t>
+          <t>FD-1F-E01-2960-rouji</t>
         </is>
       </c>
       <c r="B33" s="2" t="n"/>
@@ -6788,7 +6663,7 @@
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>5 years, 46 weeks, 5 days, 8 hours, 23 minutes</t>
+          <t>5 years, 37 weeks, 4 days, 23 hours, 17 minutes</t>
         </is>
       </c>
     </row>
@@ -6818,7 +6693,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -6828,7 +6703,7 @@
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>413416100 Used:   54891392 Free:  358524708</t>
+          <t>442793380 Used:   48235544 Free:  394557836</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6742,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>FD-1F-E01-2960-rouji</t>
+          <t>FD-1F-E11-2960-8.26</t>
         </is>
       </c>
       <c r="B41" s="2" t="n"/>
@@ -6892,7 +6767,7 @@
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>5 years, 30 weeks, 1 day, 55 minutes</t>
+          <t>5 years, 39 weeks, 5 days, 20 hours, 14 minutes</t>
         </is>
       </c>
     </row>
@@ -6922,7 +6797,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -6932,7 +6807,7 @@
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>442793380 Used:   48114164 Free:  394679216</t>
+          <t>413407844 Used:   55805856 Free:  357601988</t>
         </is>
       </c>
     </row>
@@ -6971,7 +6846,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>FD-1F-E11-2960-8.26</t>
+          <t>FD-1F-E25-2960-8.21</t>
         </is>
       </c>
       <c r="B49" s="2" t="n"/>
@@ -6996,7 +6871,7 @@
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>5 years, 32 weeks, 1 day, 21 hours, 51 minutes</t>
+          <t>6 years, 2 weeks, 1 day, 6 hours, 20 minutes</t>
         </is>
       </c>
     </row>
@@ -7026,7 +6901,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -7036,7 +6911,7 @@
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>413407844 Used:   55727384 Free:  357680460</t>
+          <t>430291588 Used:   54446664 Free:  375844924</t>
         </is>
       </c>
     </row>
@@ -7075,7 +6950,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>FD-1F-E25-2960-8.21</t>
+          <t>FD-1F-F10-2960X-split</t>
         </is>
       </c>
       <c r="B57" s="2" t="n"/>
@@ -7090,7 +6965,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>WS-C2960X-48TD-L</t>
+          <t>WS-C2960X-24TS-L</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -7100,7 +6975,7 @@
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>5 years, 46 weeks, 5 days, 8 hours, 0 minutes</t>
+          <t>5 years, 1 week, 3 days, 4 hours, 45 minutes</t>
         </is>
       </c>
     </row>
@@ -7130,7 +7005,7 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -7140,7 +7015,7 @@
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>430291588 Used:   54344004 Free:  375947584</t>
+          <t>442868516 Used:   46645464 Free:  396223052</t>
         </is>
       </c>
     </row>
@@ -7179,7 +7054,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>FD-1F-F10-2960X-split</t>
+          <t>FD-1F-G01-2960-99-252</t>
         </is>
       </c>
       <c r="B65" s="2" t="n"/>
@@ -7204,7 +7079,7 @@
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>4 years, 46 weeks, 6 hours, 26 minutes</t>
+          <t>6 years, 1 week, 1 day, 6 hours, 27 minutes</t>
         </is>
       </c>
     </row>
@@ -7244,7 +7119,7 @@
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>442868516 Used:   46570556 Free:  396297960</t>
+          <t>442865060 Used:   44317612 Free:  398547448</t>
         </is>
       </c>
     </row>
@@ -7283,7 +7158,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>FD-1F-G01-2960-99-252</t>
+          <t>FD-1F-G01-3750-99-1</t>
         </is>
       </c>
       <c r="B73" s="2" t="n"/>
@@ -7298,7 +7173,7 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>WS-C2960X-24TS-L</t>
+          <t>WS-C3750X-24</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -7308,7 +7183,7 @@
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>5 years, 45 weeks, 5 days, 8 hours, 8 minutes</t>
+          <t>5 years, 50 weeks, 4 days, 15 hours, 45 minutes</t>
         </is>
       </c>
     </row>
@@ -7338,7 +7213,7 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>24%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -7348,7 +7223,7 @@
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>442865060 Used:   44214632 Free:  398650428</t>
+          <t>187641736 Used:   46801788 Free:  140839948</t>
         </is>
       </c>
     </row>
@@ -7387,7 +7262,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>FD-1F-G01-3750-99-1</t>
+          <t>FD-1F-G01-zhijian-2960</t>
         </is>
       </c>
       <c r="B81" s="2" t="n"/>
@@ -7402,7 +7277,7 @@
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>WS-C3750X-24</t>
+          <t>WS-C2960X-24TS-L</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -7412,7 +7287,7 @@
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>5 years, 43 weeks, 17 hours, 20 minutes</t>
+          <t>5 years, 11 weeks, 3 days, 16 hours, 9 minutes</t>
         </is>
       </c>
     </row>
@@ -7442,7 +7317,7 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>23%</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -7452,7 +7327,7 @@
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>187641736 Used:   46722980 Free:  140918756</t>
+          <t>442796836 Used:   44568612 Free:  398228224</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7366,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>FD-1F-G01-zhijian-2960</t>
+          <t>FD-1F-G16-2960-DSF</t>
         </is>
       </c>
       <c r="B89" s="2" t="n"/>
@@ -7506,7 +7381,7 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>WS-C2960X-24TS-L</t>
+          <t>WS-C2960X-48TD-L</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -7516,7 +7391,7 @@
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>5 years, 3 weeks, 6 days, 17 hours, 49 minutes</t>
+          <t>4 years, 44 weeks, 6 days, 12 minutes</t>
         </is>
       </c>
     </row>
@@ -7546,7 +7421,7 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -7556,7 +7431,7 @@
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>442796836 Used:   44422764 Free:  398374072</t>
+          <t>430291588 Used:   52422840 Free:  377868748</t>
         </is>
       </c>
     </row>
@@ -7595,7 +7470,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>FD-1F-G16-2960-DSF</t>
+          <t>FD-G14-2960-10.7</t>
         </is>
       </c>
       <c r="B97" s="2" t="n"/>
@@ -7620,7 +7495,7 @@
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>4 years, 37 weeks, 2 days, 1 hour, 54 minutes</t>
+          <t>5 years, 5 weeks, 2 days, 18 hours, 52 minutes</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7525,7 @@
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -7660,7 +7535,7 @@
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>430291588 Used:   52284468 Free:  378007120</t>
+          <t>413407844 Used:   56722716 Free:  356685128</t>
         </is>
       </c>
     </row>
@@ -7699,7 +7574,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>FD-G14-2960-10.7</t>
+          <t>XY-2F-E11-3650</t>
         </is>
       </c>
       <c r="B105" s="2" t="n"/>
@@ -7714,7 +7589,7 @@
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>WS-C2960X-48TD-L</t>
+          <t>WS-C3650-48TD</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -7724,7 +7599,7 @@
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>4 years, 49 weeks, 6 days, 20 hours, 29 minutes</t>
+          <t>5 years, 33 weeks, 6 days, 2 hours, 53 minutes</t>
         </is>
       </c>
     </row>
@@ -7734,7 +7609,11 @@
           <t>序列号</t>
         </is>
       </c>
-      <c r="B107" s="3" t="inlineStr"/>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>FDO1832E133</t>
+        </is>
+      </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
           <t>板卡信息</t>
@@ -7754,7 +7633,7 @@
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -7764,7 +7643,7 @@
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>413407844 Used:   56633464 Free:  356774380</t>
+          <t>3937300K total, 1655128K used, 2282172K free</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7655,12 @@
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>——</t>
+          <t>1188
+Not
+fed
+slproc
+PWR-C2-250WAC
+25.0</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
@@ -7786,7 +7670,8 @@
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>——</t>
+          <t>OK
+NOT</t>
         </is>
       </c>
     </row>
@@ -7803,7 +7688,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>XY-2F-E11-3650</t>
+          <t>FD-1F-A06-C3650-yun</t>
         </is>
       </c>
       <c r="B113" s="2" t="n"/>
@@ -7818,7 +7703,7 @@
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>WS-C3650-48TD</t>
+          <t>WS-C3650-48TQ</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -7828,7 +7713,7 @@
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>5 years, 26 weeks, 2 days, 4 hours, 29 minutes</t>
+          <t>5 years, 29 weeks, 4 days, 3 hours, 43 minutes</t>
         </is>
       </c>
     </row>
@@ -7840,7 +7725,8 @@
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>FDO1832E133</t>
+          <t>FDO2034E3NT
+FDO2035Z05F</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -7862,7 +7748,7 @@
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>98%</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -7872,7 +7758,7 @@
       </c>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>3937300K total, 1653604K used, 2283696K free</t>
+          <t>3937300K total, 1768448K used, 2168852K free</t>
         </is>
       </c>
     </row>
@@ -7884,12 +7770,11 @@
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Not
-fed
-1192
+          <t>fed
+985
 slproc
 PWR-C2-250WAC
-24.9</t>
+116</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
@@ -7899,8 +7784,7 @@
       </c>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>OK
-NOT</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7801,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>FD-1F-A06-C3650-yun</t>
+          <t>FD-1F-B29-2960-8.30</t>
         </is>
       </c>
       <c r="B121" s="2" t="n"/>
@@ -7932,7 +7816,7 @@
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>WS-C3650-48TQ</t>
+          <t>WS-C2960X-48TD-L</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -7942,7 +7826,7 @@
       </c>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t>5 years, 22 weeks, 5 hours, 20 minutes</t>
+          <t>6 years, 2 weeks, 1 day, 7 hours, 58 minutes</t>
         </is>
       </c>
     </row>
@@ -7952,12 +7836,7 @@
           <t>序列号</t>
         </is>
       </c>
-      <c r="B123" s="3" t="inlineStr">
-        <is>
-          <t>FDO2034E3NT
-FDO2035Z05F</t>
-        </is>
-      </c>
+      <c r="B123" s="3" t="inlineStr"/>
       <c r="C123" s="3" t="inlineStr">
         <is>
           <t>板卡信息</t>
@@ -7977,7 +7856,7 @@
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>97%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -7987,7 +7866,7 @@
       </c>
       <c r="D124" s="3" t="inlineStr">
         <is>
-          <t>3937300K total, 1768580K used, 2168720K free</t>
+          <t>413416100 Used:   55360084 Free:  358056016</t>
         </is>
       </c>
     </row>
@@ -7999,10 +7878,7 @@
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>PWR-C2-250WAC
-fed
-975
-slproc</t>
+          <t>——</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
@@ -8012,7 +7888,7 @@
       </c>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>——</t>
         </is>
       </c>
     </row>
@@ -8026,119 +7902,14 @@
       <c r="C126" s="4" t="n"/>
       <c r="D126" s="5" t="n"/>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <t>FD-1F-B29-2960-8.30</t>
-        </is>
-      </c>
-      <c r="B129" s="2" t="n"/>
-      <c r="C129" s="2" t="n"/>
-      <c r="D129" s="2" t="n"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="3" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="B130" s="3" t="inlineStr">
-        <is>
-          <t>WS-C2960X-48TD-L</t>
-        </is>
-      </c>
-      <c r="C130" s="3" t="inlineStr">
-        <is>
-          <t>运行时间</t>
-        </is>
-      </c>
-      <c r="D130" s="3" t="inlineStr">
-        <is>
-          <t>5 years, 46 weeks, 5 days, 9 hours, 35 minutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="3" t="inlineStr">
-        <is>
-          <t>序列号</t>
-        </is>
-      </c>
-      <c r="B131" s="3" t="inlineStr"/>
-      <c r="C131" s="3" t="inlineStr">
-        <is>
-          <t>板卡信息</t>
-        </is>
-      </c>
-      <c r="D131" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="3" t="inlineStr">
-        <is>
-          <t>CPU_usage</t>
-        </is>
-      </c>
-      <c r="B132" s="3" t="inlineStr">
-        <is>
-          <t>35%</t>
-        </is>
-      </c>
-      <c r="C132" s="3" t="inlineStr">
-        <is>
-          <t>Memory_usage</t>
-        </is>
-      </c>
-      <c r="D132" s="3" t="inlineStr">
-        <is>
-          <t>413416100 Used:   55240976 Free:  358175124</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="3" t="inlineStr">
-        <is>
-          <t>电源状态</t>
-        </is>
-      </c>
-      <c r="B133" s="3" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
-      </c>
-      <c r="C133" s="3" t="inlineStr">
-        <is>
-          <t>风扇状态</t>
-        </is>
-      </c>
-      <c r="D133" s="3" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="3" t="inlineStr">
-        <is>
-          <t>本月无硬件告警</t>
-        </is>
-      </c>
-      <c r="B134" s="4" t="n"/>
-      <c r="C134" s="4" t="n"/>
-      <c r="D134" s="5" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="32">
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A126:D126"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A97:D97"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A134:D134"/>
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A121:D121"/>
     <mergeCell ref="A102:D102"/>
@@ -8164,7 +7935,6 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A113:D113"/>
     <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A129:D129"/>
     <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
